--- a/pubmed_validation_sheets/10511957 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/10511957 DISNET VALIDATION.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECA9C9AA-B1A0-3147-B8BF-6372F9253896}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8196AC05-5B00-A947-95CD-91FC376E052C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39180" yWindow="460" windowWidth="20520" windowHeight="16940" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -177,15 +185,6 @@
   </si>
   <si>
     <t>Clinical finding</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>Image (foundation metadata concept)</t>
-  </si>
-  <si>
-    <t>[inpr]</t>
   </si>
   <si>
     <t>abnormalities</t>
@@ -494,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -880,7 +882,7 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="127" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="127" customHeight="1" thickBot="1">
       <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
@@ -892,7 +894,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +912,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -964,13 +966,17 @@
       <c r="I4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>17</v>
@@ -993,8 +999,12 @@
       <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1022,8 +1032,12 @@
       <c r="I6" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1051,8 +1065,12 @@
       <c r="I7" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1080,8 +1098,12 @@
       <c r="I8" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1109,8 +1131,12 @@
       <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1136,10 +1162,14 @@
         <v>11</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1167,8 +1197,12 @@
       <c r="I11" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1196,8 +1230,12 @@
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1225,8 +1263,12 @@
       <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1254,8 +1296,12 @@
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1283,8 +1329,12 @@
       <c r="I15" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1312,8 +1362,12 @@
       <c r="I16" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1341,8 +1395,12 @@
       <c r="I17" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1370,8 +1428,12 @@
       <c r="I18" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1399,8 +1461,12 @@
       <c r="I19" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1428,8 +1494,12 @@
       <c r="I20" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1440,7 +1510,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E21" s="10" t="b">
         <v>0</v>
@@ -1457,57 +1527,37 @@
       <c r="I21" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{8047EF7D-35A0-E345-8F56-AFCA45E2D805}">
+    <sortState ref="A4:I21">
+      <sortCondition ref="A3:A21"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
